--- a/BOM/BOM M.2 to USB V1.0.xlsx
+++ b/BOM/BOM M.2 to USB V1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\M.2-to-USB\M.2 to USB V1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\M.2-to-USB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C703A-1AE5-4632-A8D8-7CC134FB0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6249BC4F-F06F-44C0-B96B-94C212635B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{72E65254-183C-4DDD-8476-BAAC512B5B2B}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t>LMK105BJ225KV-F</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/taiyo-yuden/LMK105BJ225KV-F/7403747</t>
-  </si>
-  <si>
     <t>4.5pF Crystal Load Cap</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>R2, R3, R4, R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/taiyo-yuden/LMK105BJ225KV-F/7403747 </t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -356,9 +356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,7 +694,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -726,7 +723,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(G5:G29)</f>
-        <v>15.46</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -925,7 +922,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>34</v>
@@ -993,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
@@ -1001,7 +998,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>42</v>
@@ -1021,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
@@ -1029,7 +1026,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -1088,7 +1085,7 @@
         <v>0.1</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1096,10 +1093,10 @@
         <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1124,10 +1121,10 @@
         <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1144,18 +1141,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>64</v>
+      <c r="A19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1172,7 +1169,7 @@
         <v>1.37</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1190,6 +1187,8 @@
     <hyperlink ref="H18" r:id="rId11" xr:uid="{EAEB1710-164B-455E-B526-3DB98DDEA413}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{4A04BC9E-0487-4EAC-B78F-8605E57392BD}"/>
     <hyperlink ref="H19" r:id="rId13" xr:uid="{413F7889-57DF-4E2A-A44F-2026F1F0BF49}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{C503483C-62F4-421C-B752-57AB4C2F5E94}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{CA4AF443-7BBF-4A38-919F-724C31477655}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
